--- a/example_data/EMA/label_corrected/baraclude-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/baraclude-epar-product-information_en.xlsx
@@ -867,7 +867,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>populations - pediatric || renal || hepatic</t>
+          <t>populations - pediatric || hepatic || renal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - geriatric</t>
+          <t>populations - geriatric || populations - adolescent || populations - pediatric</t>
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
